--- a/Данные/Массовая доля КС вики (опыт и контроьль).xlsx
+++ b/Данные/Массовая доля КС вики (опыт и контроьль).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADB92E9-2E2F-457E-A27C-E8FC1BBC9A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t xml:space="preserve">доля КС </t>
   </si>
@@ -43,12 +44,6 @@
     <t>контр_дистил.</t>
   </si>
   <si>
-    <t>10 мкМ</t>
-  </si>
-  <si>
-    <t>His 1 mM</t>
-  </si>
-  <si>
     <t>П.О. His 0,5 mM</t>
   </si>
   <si>
@@ -65,12 +60,30 @@
   </si>
   <si>
     <t>П.о. Gln 5 mM</t>
+  </si>
+  <si>
+    <t>10 mkM His 1 mM</t>
+  </si>
+  <si>
+    <t>100 mkM</t>
+  </si>
+  <si>
+    <t>100 mkM His 1 mM</t>
+  </si>
+  <si>
+    <t>100 mkM Gln 5 mM</t>
+  </si>
+  <si>
+    <t>10 mkM</t>
+  </si>
+  <si>
+    <t>10 mkM Gln 5 mM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="###0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -125,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -201,23 +214,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -233,15 +235,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный_биомасса" xfId="1"/>
+    <cellStyle name="Обычный_биомасса" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -332,6 +338,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -367,6 +390,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -542,20 +582,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -586,261 +628,499 @@
         <v>8</v>
       </c>
       <c r="D2" s="3">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2" s="4">
-        <v>0.45924100000000001</v>
+        <v>0.4619047</v>
       </c>
       <c r="F2" s="4">
-        <v>3.0442899999999998E-2</v>
+        <v>3.5306480000000001E-2</v>
       </c>
       <c r="G2" s="5">
-        <v>3.399989E-3</v>
+        <v>3.1706159999999998E-3</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3">
+        <v>29</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.56364709999999996</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.1516939999999998E-2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>3.9955950000000002E-3</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="7"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.49394510000000003</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3.1108449999999999E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>6.6323440000000001E-3</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="7"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.4758404</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4.0704320000000002E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8.6781900000000006E-3</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.1431</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="7"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.59224270000000001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.9798979999999999E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6.2135159999999997E-3</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.4160141</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.094666E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3.4616389999999999E-3</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.4892492</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.542256E-2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4.4521090000000001E-3</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="3">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.56140330000000005</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3.8790329999999998E-2</v>
-      </c>
-      <c r="G3" s="5">
-        <v>3.8354449999999998E-3</v>
-      </c>
-      <c r="H3" s="9">
-        <v>9.9369999999999992E-4</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.4703466</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4.6390000000000001E-2</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1.8938654999999999E-2</v>
-      </c>
-      <c r="I4" s="12">
-        <v>4.4120000000000001E-3</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.46788180000000001</v>
-      </c>
-      <c r="F5" s="4">
-        <v>4.5373910000000003E-2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2.6196641E-2</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.3737355</v>
-      </c>
-      <c r="F6" s="4">
-        <v>4.808378E-2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>2.7761184000000001E-2</v>
-      </c>
-      <c r="K6" s="13">
-        <v>8.9580000000000007E-2</v>
-      </c>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.48571209999999998</v>
-      </c>
-      <c r="F7" s="4">
-        <v>6.1479300000000001E-2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2.5098817999999998E-2</v>
-      </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="17">
-        <v>3.2750000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>0.45828039999999998</v>
-      </c>
-      <c r="F8">
-        <v>3.0613499999999998E-2</v>
-      </c>
-      <c r="G8">
-        <v>1.7674714000000001E-2</v>
-      </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>16</v>
       </c>
       <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>0.42668109999999998</v>
-      </c>
-      <c r="F9">
-        <v>4.6596390000000001E-2</v>
-      </c>
-      <c r="G9">
-        <v>2.6902438000000001E-2</v>
-      </c>
+      <c r="E9" s="4">
+        <v>0.46788180000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4.5373910000000003E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2.6196641E-2</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="O9" s="12">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.3737355</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4.808378E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2.7761184000000001E-2</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="P10" s="12">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <f>129-30</f>
-        <v>99</v>
+      <c r="D11" s="3">
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>0.4361989</v>
-      </c>
-      <c r="F11" s="14">
-        <v>7.8428629999999999E-2</v>
+        <v>0.45828039999999998</v>
+      </c>
+      <c r="F11">
+        <v>3.0613499999999998E-2</v>
       </c>
       <c r="G11">
-        <v>9.8810779999999997E-3</v>
-      </c>
-      <c r="H11" s="6"/>
+        <v>1.7674714000000001E-2</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="Q11" s="12">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>0.4897299</v>
+        <v>0.42668109999999998</v>
       </c>
       <c r="F12">
-        <v>1.806431E-2</v>
+        <v>4.6596390000000001E-2</v>
       </c>
       <c r="G12">
-        <v>7.374724E-3</v>
-      </c>
-      <c r="H12" s="13">
-        <v>1.4009999999999999E-4</v>
-      </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+        <v>2.6902438000000001E-2</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="R12" s="18">
+        <v>0.3201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
+        <v>90</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.42378300000000002</v>
+      </c>
+      <c r="F14" s="13">
+        <v>6.5467689999999995E-2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>6.9009010000000001E-3</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.49010199999999998</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1.7774479999999999E-2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>4.443621E-3</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.46942089999999997</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1.9691285999999999E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4.2282140000000001E-3</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="15">
+        <v>2.0769999999999999E-3</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.43845859999999998</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.0998060000000003E-2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.0249514E-2</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="16">
+        <v>1.561E-4</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.58858489999999997</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1.5898300000000001E-2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>4.4093960000000003E-3</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="20"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3">
         <v>10</v>
       </c>
-      <c r="D13" s="3">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.47523389999999999</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2.3465090000000001E-2</v>
-      </c>
-      <c r="G13" s="5">
-        <v>9.5795829999999992E-3</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="16">
-        <v>0.25990000000000002</v>
-      </c>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.4850912</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1.528056E-2</v>
-      </c>
-      <c r="G14" s="4">
-        <v>6.2382640000000003E-3</v>
-      </c>
-      <c r="J14" s="17">
-        <v>0.64170000000000005</v>
+      <c r="E19" s="4">
+        <v>0.4826819</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1.000755E-2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>3.1646640000000002E-3</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="9">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.49437569999999997</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1.6030180000000002E-2</v>
+      </c>
+      <c r="G20" s="5">
+        <v>4.8332820000000004E-3</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
